--- a/df_1/df_1_15.xlsx
+++ b/df_1/df_1_15.xlsx
@@ -656,372 +656,372 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.045 %</t>
+          <t>0,045</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5111 %</t>
+          <t>0,5111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.1648 %</t>
+          <t>1,1648</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.718 %</t>
+          <t>0,718</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.7817 %</t>
+          <t>0,7817</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1296 %</t>
+          <t>1,1296</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.1819 %</t>
+          <t>1,1819</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.8989 %</t>
+          <t>0,8989</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8328 %</t>
+          <t>0,8328</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.8927 %</t>
+          <t>0,8927</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.336 %</t>
+          <t>1,336</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.9045 %</t>
+          <t>0,9045</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.6293 %</t>
+          <t>0,6293</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.8676 %</t>
+          <t>0,8676</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.4507 %</t>
+          <t>1,4507</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.903 %</t>
+          <t>0,903</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.8899 %</t>
+          <t>0,8899</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.915 %</t>
+          <t>0,915</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.5661 %</t>
+          <t>1,5661</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.7742 %</t>
+          <t>0,7742</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.7955 %</t>
+          <t>0,7955</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.8058 %</t>
+          <t>0,8058</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.5224 %</t>
+          <t>1,5224</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.0544 %</t>
+          <t>1,0544</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.6631 %</t>
+          <t>0,6631</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6175 %</t>
+          <t>0,6175</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.0059 %</t>
+          <t>1,0059</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.7483 %</t>
+          <t>0,7483</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5912 %</t>
+          <t>0,5912</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.6 %</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1.0417 %</t>
+          <t>1,0417</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.8756 %</t>
+          <t>0,8756</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.6245 %</t>
+          <t>0,6245</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.6381 %</t>
+          <t>0,6381</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.297 %</t>
+          <t>1,297</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.9801 %</t>
+          <t>0,9801</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8394 %</t>
+          <t>0,8394</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.6478 %</t>
+          <t>0,6478</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.0811 %</t>
+          <t>1,0811</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.8503 %</t>
+          <t>0,8503</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.6329 %</t>
+          <t>0,6329</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.6912 %</t>
+          <t>0,6912</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.3926 %</t>
+          <t>1,3926</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1.1407 %</t>
+          <t>1,1407</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.7213 %</t>
+          <t>0,7213</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.9589 %</t>
+          <t>0,9589</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.9447 %</t>
+          <t>0,9447</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.6454 %</t>
+          <t>0,6454</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.7886 %</t>
+          <t>0,7886</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.8985 %</t>
+          <t>0,8985</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1.1059 %</t>
+          <t>1,1059</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.8315 %</t>
+          <t>0,8315</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.6284 %</t>
+          <t>0,6284</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.5132 %</t>
+          <t>0,5132</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.9944 %</t>
+          <t>0,9944</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.8482 %</t>
+          <t>0,8482</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.7527 %</t>
+          <t>0,7527</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.7912 %</t>
+          <t>0,7912</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.8695 %</t>
+          <t>0,8695</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.6456 %</t>
+          <t>0,6456</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.7863 %</t>
+          <t>0,7863</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6098 %</t>
+          <t>0,6098</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.0428 %</t>
+          <t>1,0428</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.5478 %</t>
+          <t>0,5478</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.4604 %</t>
+          <t>0,4604</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.7983 %</t>
+          <t>0,7983</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.6506 %</t>
+          <t>0,6506</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.9259 %</t>
+          <t>0,9259</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>1.5302 %</t>
+          <t>1,5302</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.8058 %</t>
+          <t>1,8058</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.8352 %</t>
+          <t>1,8352</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.8843 %</t>
+          <t>0,8843</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.3344 %</t>
+          <t>0,3344</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.6563 %</t>
+          <t>1,6563</t>
         </is>
       </c>
     </row>
@@ -1033,227 +1033,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.6627 %</t>
+          <t>5,6627</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.3612 %</t>
+          <t>0,3612</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.2552 %</t>
+          <t>0,2552</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.3362 %</t>
+          <t>0,3362</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.44 %</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5789 %</t>
+          <t>0,5789</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.6412 %</t>
+          <t>0,6412</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.7133 %</t>
+          <t>0,7133</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.0704 %</t>
+          <t>1,0704</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6925 %</t>
+          <t>0,6925</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.7034 %</t>
+          <t>0,7034</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.9887 %</t>
+          <t>0,9887</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1.0117 %</t>
+          <t>1,0117</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.454 %</t>
+          <t>1,454</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.3821 %</t>
+          <t>1,3821</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.5609 %</t>
+          <t>1,5609</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.0381 %</t>
+          <t>1,0381</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.1495 %</t>
+          <t>1,1495</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.479 %</t>
+          <t>1,479</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.5682 %</t>
+          <t>1,5682</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1.0508 %</t>
+          <t>1,0508</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.3594 %</t>
+          <t>1,3594</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1.5618 %</t>
+          <t>1,5618</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.7288 %</t>
+          <t>1,7288</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.3143 %</t>
+          <t>1,3143</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.318 %</t>
+          <t>1,318</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.9775 %</t>
+          <t>0,9775</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.9959 %</t>
+          <t>0,9959</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.5609 %</t>
+          <t>0,5609</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.7136 %</t>
+          <t>0,7136</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.6775 %</t>
+          <t>0,6775</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.7302 %</t>
+          <t>0,7302</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.621 %</t>
+          <t>0,621</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.5679 %</t>
+          <t>0,5679</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.4563 %</t>
+          <t>0,4563</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.2793 %</t>
+          <t>0,2793</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.6586 %</t>
+          <t>0,6586</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.2042 %</t>
+          <t>0,2042</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.1408 %</t>
+          <t>0,1408</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.0898 %</t>
+          <t>0,0898</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.22 %</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.1574 %</t>
+          <t>0,1574</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.2992 %</t>
+          <t>0,2992</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.1257 %</t>
+          <t>0,1257</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3.3239 %</t>
+          <t>3,3239</t>
         </is>
       </c>
     </row>
@@ -1265,227 +1265,227 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.3505 %</t>
+          <t>14,3505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.7704 %</t>
+          <t>2,7704</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.2005 %</t>
+          <t>2,2005</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.1121 %</t>
+          <t>1,1121</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.7283 %</t>
+          <t>0,7283</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5919 %</t>
+          <t>0,5919</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.4174 %</t>
+          <t>0,4174</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2639 %</t>
+          <t>0,2639</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2046 %</t>
+          <t>0,2046</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.15 %</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.1346 %</t>
+          <t>0,1346</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.1137 %</t>
+          <t>0,1137</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.101 %</t>
+          <t>0,101</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.049 %</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0385 %</t>
+          <t>0,0385</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0342 %</t>
+          <t>0,0342</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0425 %</t>
+          <t>0,0425</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0622 %</t>
+          <t>0,0622</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.114 %</t>
+          <t>0,114</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.304 %</t>
+          <t>0,304</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.5467 %</t>
+          <t>0,5467</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.7774 %</t>
+          <t>0,7774</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.804 %</t>
+          <t>0,804</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.62 %</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.4759 %</t>
+          <t>0,4759</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.4028 %</t>
+          <t>0,4028</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.3361 %</t>
+          <t>0,3361</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.3211 %</t>
+          <t>0,3211</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.3043 %</t>
+          <t>0,3043</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.5123 %</t>
+          <t>0,5123</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.7408 %</t>
+          <t>0,7408</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.9995 %</t>
+          <t>0,9995</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.4487 %</t>
+          <t>1,4487</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.8951 %</t>
+          <t>1,8951</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.9059 %</t>
+          <t>2,9059</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>4.6823 %</t>
+          <t>4,6823</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>7.626 %</t>
+          <t>7,626</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>7.0423 %</t>
+          <t>7,0423</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>6.7204 %</t>
+          <t>6,7204</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7.3948 %</t>
+          <t>7,3948</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>9.2777 %</t>
+          <t>9,2777</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>5.7216 %</t>
+          <t>5,7216</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>4.9006 %</t>
+          <t>4,9006</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>3.655 %</t>
+          <t>3,655</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3.6469 %</t>
+          <t>3,6469</t>
         </is>
       </c>
     </row>
